--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_020_OptionletStripper6M.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_020_OptionletStripper6M.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$17</definedName>
     <definedName name="CapFloorTermVolSurface">'General Settings'!$D$14</definedName>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Index</t>
   </si>
@@ -96,6 +93,9 @@
   <si>
     <t>EUR</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +107,7 @@
     <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -395,22 +395,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,7 +691,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
@@ -716,13 +700,13 @@
     <col min="5" max="5" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:256" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="15.75">
+    <row r="2" spans="1:256" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="35" t="s">
         <v>5</v>
@@ -982,7 +966,7 @@
       <c r="IU2" s="17"/>
       <c r="IV2" s="17"/>
     </row>
-    <row r="3" spans="1:256">
+    <row r="3" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -1240,7 +1224,7 @@
       <c r="IU3" s="17"/>
       <c r="IV3" s="17"/>
     </row>
-    <row r="4" spans="1:256">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="4"/>
       <c r="C4" s="32" t="s">
@@ -1500,7 +1484,7 @@
       <c r="IU4" s="17"/>
       <c r="IV4" s="17"/>
     </row>
-    <row r="5" spans="1:256">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="32" t="s">
@@ -1762,7 +1746,7 @@
       <c r="IU5" s="17"/>
       <c r="IV5" s="17"/>
     </row>
-    <row r="6" spans="1:256">
+    <row r="6" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="4"/>
       <c r="C6" s="32" t="s">
@@ -2024,7 +2008,7 @@
       <c r="IU6" s="17"/>
       <c r="IV6" s="17"/>
     </row>
-    <row r="7" spans="1:256">
+    <row r="7" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="4"/>
       <c r="C7" s="32" t="s">
@@ -2286,15 +2270,14 @@
       <c r="IU7" s="17"/>
       <c r="IV7" s="17"/>
     </row>
-    <row r="8" spans="1:256">
+    <row r="8" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="4"/>
       <c r="C8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="34" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\030_CapVolBootstrap\020_MarketMetaData\</v>
+      <c r="D8" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="17"/>
@@ -2549,7 +2532,7 @@
       <c r="IU8" s="17"/>
       <c r="IV8" s="17"/>
     </row>
-    <row r="9" spans="1:256">
+    <row r="9" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="4"/>
       <c r="C9" s="32" t="s">
@@ -2811,7 +2794,7 @@
       <c r="IU9" s="17"/>
       <c r="IV9" s="17"/>
     </row>
-    <row r="10" spans="1:256">
+    <row r="10" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -3069,8 +3052,8 @@
       <c r="IU10" s="17"/>
       <c r="IV10" s="17"/>
     </row>
-    <row r="11" spans="1:256" s="17" customFormat="1"/>
-    <row r="12" spans="1:256" ht="15.75">
+    <row r="11" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:256" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="35" t="s">
         <v>15</v>
@@ -3330,7 +3313,7 @@
       <c r="IU12" s="17"/>
       <c r="IV12" s="17"/>
     </row>
-    <row r="13" spans="1:256">
+    <row r="13" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -3588,7 +3571,7 @@
       <c r="IU13" s="17"/>
       <c r="IV13" s="17"/>
     </row>
-    <row r="14" spans="1:256">
+    <row r="14" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="2"/>
       <c r="C14" s="19" t="s">
@@ -3850,7 +3833,7 @@
       <c r="IU14" s="17"/>
       <c r="IV14" s="17"/>
     </row>
-    <row r="15" spans="1:256">
+    <row r="15" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="2"/>
       <c r="C15" s="19" t="s">
@@ -4112,7 +4095,7 @@
       <c r="IU15" s="17"/>
       <c r="IV15" s="17"/>
     </row>
-    <row r="16" spans="1:256">
+    <row r="16" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="2"/>
       <c r="C16" s="19" t="s">
@@ -4375,7 +4358,7 @@
       <c r="IU16" s="17"/>
       <c r="IV16" s="17"/>
     </row>
-    <row r="17" spans="1:256">
+    <row r="17" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="2"/>
       <c r="C17" s="19" t="s">
@@ -4637,7 +4620,7 @@
       <c r="IU17" s="17"/>
       <c r="IV17" s="17"/>
     </row>
-    <row r="18" spans="1:256">
+    <row r="18" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="2"/>
       <c r="C18" s="19" t="s">
@@ -4897,7 +4880,7 @@
       <c r="IU18" s="17"/>
       <c r="IV18" s="17"/>
     </row>
-    <row r="19" spans="1:256">
+    <row r="19" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="2"/>
       <c r="C19" s="19" t="s">
@@ -5159,7 +5142,7 @@
       <c r="IU19" s="17"/>
       <c r="IV19" s="17"/>
     </row>
-    <row r="20" spans="1:256">
+    <row r="20" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="2"/>
       <c r="C20" s="19" t="s">
@@ -5422,7 +5405,7 @@
       <c r="IU20" s="17"/>
       <c r="IV20" s="17"/>
     </row>
-    <row r="21" spans="1:256">
+    <row r="21" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="2"/>
       <c r="C21" s="24" t="s">
@@ -5685,7 +5668,7 @@
       <c r="IU21" s="17"/>
       <c r="IV21" s="17"/>
     </row>
-    <row r="22" spans="1:256">
+    <row r="22" spans="1:256" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="2"/>
       <c r="C22" s="26" t="s">
@@ -5948,7 +5931,7 @@
       <c r="IU22" s="17"/>
       <c r="IV22" s="17"/>
     </row>
-    <row r="23" spans="1:256" s="13" customFormat="1">
+    <row r="23" spans="1:256" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="11"/>
       <c r="C23" s="28" t="s">
@@ -6211,7 +6194,7 @@
       <c r="IU23" s="17"/>
       <c r="IV23" s="17"/>
     </row>
-    <row r="24" spans="1:256" s="13" customFormat="1">
+    <row r="24" spans="1:256" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="11"/>
       <c r="C24" s="30" t="s">
@@ -6474,7 +6457,7 @@
       <c r="IU24" s="17"/>
       <c r="IV24" s="17"/>
     </row>
-    <row r="25" spans="1:256" s="13" customFormat="1">
+    <row r="25" spans="1:256" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -6732,34 +6715,34 @@
       <c r="IU25" s="17"/>
       <c r="IV25" s="17"/>
     </row>
-    <row r="26" spans="1:256" s="17" customFormat="1"/>
-    <row r="27" spans="1:256" s="17" customFormat="1"/>
-    <row r="28" spans="1:256" s="17" customFormat="1"/>
-    <row r="29" spans="1:256" s="17" customFormat="1"/>
-    <row r="30" spans="1:256" s="17" customFormat="1"/>
-    <row r="31" spans="1:256" s="17" customFormat="1"/>
-    <row r="32" spans="1:256" s="17" customFormat="1"/>
-    <row r="33" s="17" customFormat="1"/>
-    <row r="34" s="17" customFormat="1"/>
-    <row r="35" s="17" customFormat="1"/>
-    <row r="36" s="17" customFormat="1"/>
-    <row r="37" s="17" customFormat="1"/>
-    <row r="38" s="17" customFormat="1"/>
-    <row r="39" s="17" customFormat="1"/>
-    <row r="40" s="17" customFormat="1"/>
-    <row r="41" s="17" customFormat="1"/>
-    <row r="42" s="17" customFormat="1"/>
-    <row r="43" s="17" customFormat="1"/>
-    <row r="44" s="17" customFormat="1"/>
-    <row r="45" s="17" customFormat="1"/>
-    <row r="46" s="17" customFormat="1"/>
-    <row r="47" s="17" customFormat="1"/>
-    <row r="48" s="17" customFormat="1"/>
-    <row r="49" s="17" customFormat="1"/>
-    <row r="50" s="17" customFormat="1"/>
-    <row r="51" s="17" customFormat="1"/>
-    <row r="52" s="17" customFormat="1"/>
-    <row r="53" s="17" customFormat="1"/>
+    <row r="26" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:E12"/>

--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_020_OptionletStripper6M.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_020_OptionletStripper6M.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Index</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>EUR</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -2276,8 +2273,9 @@
       <c r="C8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>21</v>
+      <c r="D8" s="34" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\030_CapVolBootstrap\020_MarketMetaData\</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="17"/>
@@ -5674,9 +5672,9 @@
       <c r="C22" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="27" t="str">
+      <c r="D22" s="27" t="e">
         <f ca="1">IF(ISERROR(CapletStripper6M),_xll.ohRangeRetrieveError(CapletStripper6M),_xll.ohRangeRetrieveError(D21))</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="17"/>
@@ -6201,8 +6199,8 @@
         <v>12</v>
       </c>
       <c r="D24" s="31" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(CapletStripper6M,SerializationPath&amp;D23,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(CapletStripper6M,SerializationPath&amp;D23,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="17"/>
